--- a/biology/Botanique/Square_Jules-Ferry/Square_Jules-Ferry.xlsx
+++ b/biology/Botanique/Square_Jules-Ferry/Square_Jules-Ferry.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Jules-Ferry est un espace vert du 11e arrondissement de Paris.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le site est accessible par le 1, boulevard Jules-Ferry.
 Il est desservi par les lignes 5 et 9 à la station Oberkampf.
@@ -544,7 +558,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il rend hommage à l'homme d'État Jules Ferry (1832-1893).
 </t>
@@ -575,7 +591,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square a été créé en 1924.
 </t>
@@ -606,9 +624,11 @@
           <t>Bâtiments remarquables et lieux de mémoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le square est orné d'une statue en pierre, réalisée en 1911 d'après une sculpture présentée en 1909 par Jean-Bernard Descomps[1]. Elle représente une grisette, nom donné au XIXe siècle aux jeunes femmes pauvres qui travaillaient dans les ateliers de confection, habillées d'une blouse grise, et dont les bourgeois pensaient pouvoir aisément acheter les faveurs sexuelles. D'après l'attitude, la figure est plus exactement un « trottin », jeune employée en formation dont la tâche principale consistait à aller livrer les commandes, à pied.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le square est orné d'une statue en pierre, réalisée en 1911 d'après une sculpture présentée en 1909 par Jean-Bernard Descomps. Elle représente une grisette, nom donné au XIXe siècle aux jeunes femmes pauvres qui travaillaient dans les ateliers de confection, habillées d'une blouse grise, et dont les bourgeois pensaient pouvoir aisément acheter les faveurs sexuelles. D'après l'attitude, la figure est plus exactement un « trottin », jeune employée en formation dont la tâche principale consistait à aller livrer les commandes, à pied.
 			Kiosque à musique.
 			La Grisette de 1830.
 </t>
